--- a/Code/Results/Cases/Case_1_111/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_111/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.80895944202437</v>
+        <v>15.43616840798465</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.034846122951047</v>
+        <v>3.431135433691324</v>
       </c>
       <c r="E2">
-        <v>23.70297951758632</v>
+        <v>19.75547178734143</v>
       </c>
       <c r="F2">
-        <v>34.24564013668541</v>
+        <v>25.97006422263257</v>
       </c>
       <c r="G2">
-        <v>53.12198968366366</v>
+        <v>34.5223991359973</v>
       </c>
       <c r="H2">
-        <v>13.40894286270684</v>
+        <v>13.85183328071549</v>
       </c>
       <c r="I2">
-        <v>12.44564391910013</v>
+        <v>22.55805929405394</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.3077661353498</v>
+        <v>10.1090585160351</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.21501701030054</v>
+        <v>17.68618808484334</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.69149674948459</v>
+        <v>15.09658988651523</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.933611851078528</v>
+        <v>3.450456682539366</v>
       </c>
       <c r="E3">
-        <v>22.53339349152246</v>
+        <v>19.34131854567429</v>
       </c>
       <c r="F3">
-        <v>31.77349550771837</v>
+        <v>25.33872057111664</v>
       </c>
       <c r="G3">
-        <v>49.26463515755365</v>
+        <v>33.1945802744435</v>
       </c>
       <c r="H3">
-        <v>12.67265149140798</v>
+        <v>13.74167325498498</v>
       </c>
       <c r="I3">
-        <v>12.94561665642005</v>
+        <v>22.72911852487826</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.48699819178792</v>
+        <v>9.91086866741111</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.21939954667144</v>
+        <v>17.70715894152752</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.97173552595178</v>
+        <v>14.88655162169721</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.947490431804187</v>
+        <v>3.463203458708285</v>
       </c>
       <c r="E4">
-        <v>21.7897322919787</v>
+        <v>19.08070159868165</v>
       </c>
       <c r="F4">
-        <v>30.28758065805283</v>
+        <v>24.95362956415997</v>
       </c>
       <c r="G4">
-        <v>46.80275312074644</v>
+        <v>32.3664761644595</v>
       </c>
       <c r="H4">
-        <v>12.21561418972984</v>
+        <v>13.67826265619505</v>
       </c>
       <c r="I4">
-        <v>13.26078390311196</v>
+        <v>22.83931618153206</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.95663215014854</v>
+        <v>9.789233909878485</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.22645209532705</v>
+        <v>17.72220381421018</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.67007444488951</v>
+        <v>14.80069245059844</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.95406403620126</v>
+        <v>3.468618912312218</v>
       </c>
       <c r="E5">
-        <v>21.48036707998659</v>
+        <v>18.97299722032744</v>
       </c>
       <c r="F5">
-        <v>29.68302521044039</v>
+        <v>24.79761184677212</v>
       </c>
       <c r="G5">
-        <v>45.77579654398289</v>
+        <v>32.02642329200862</v>
       </c>
       <c r="H5">
-        <v>12.02827923333508</v>
+        <v>13.65350835224798</v>
       </c>
       <c r="I5">
-        <v>13.39130003476684</v>
+        <v>22.88552517306984</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.73379918063496</v>
+        <v>9.739748252531157</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.2304092949911</v>
+        <v>17.728881419052</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.61948328572317</v>
+        <v>14.78642304597078</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.955208168602141</v>
+        <v>3.469531462552303</v>
       </c>
       <c r="E6">
-        <v>21.42861972787999</v>
+        <v>18.95502504998639</v>
       </c>
       <c r="F6">
-        <v>29.5819774613792</v>
+        <v>24.77176808777366</v>
       </c>
       <c r="G6">
-        <v>45.60383497037525</v>
+        <v>31.96982062141986</v>
       </c>
       <c r="H6">
-        <v>11.99711217569552</v>
+        <v>13.64946413351279</v>
       </c>
       <c r="I6">
-        <v>13.41309877103837</v>
+        <v>22.89327691127783</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.69639135702413</v>
+        <v>9.731538121196715</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.23113141096759</v>
+        <v>17.73002328848119</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.9677008685731</v>
+        <v>14.88539461496209</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.947575499059632</v>
+        <v>3.46327559990772</v>
       </c>
       <c r="E7">
-        <v>21.7855854877855</v>
+        <v>19.07925501474057</v>
       </c>
       <c r="F7">
-        <v>30.27947195364312</v>
+        <v>24.95152141360915</v>
       </c>
       <c r="G7">
-        <v>46.78899945119286</v>
+        <v>32.36189972093545</v>
       </c>
       <c r="H7">
-        <v>12.21309189015956</v>
+        <v>13.67792438541635</v>
       </c>
       <c r="I7">
-        <v>13.26253561859241</v>
+        <v>22.83993409375164</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.95365416914304</v>
+        <v>9.788566108701307</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.22650109551612</v>
+        <v>17.72229165541897</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.43068967336368</v>
+        <v>15.31947073181243</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.989319260419821</v>
+        <v>3.437613362199095</v>
       </c>
       <c r="E8">
-        <v>23.30504982318891</v>
+        <v>19.6140369165083</v>
       </c>
       <c r="F8">
-        <v>33.40566889025452</v>
+        <v>25.75200480352845</v>
       </c>
       <c r="G8">
-        <v>51.81119182301552</v>
+        <v>34.06758754447554</v>
       </c>
       <c r="H8">
-        <v>13.15617590262073</v>
+        <v>13.81298697155228</v>
       </c>
       <c r="I8">
-        <v>12.61635017452222</v>
+        <v>22.61597022135967</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.03020562618759</v>
+        <v>10.0407515792684</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.21561473646329</v>
+        <v>17.69296955543154</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.2047120643076</v>
+        <v>16.15349406636456</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.313246750368281</v>
+        <v>3.394350692933696</v>
       </c>
       <c r="E9">
-        <v>26.08054503873958</v>
+        <v>20.60885693586374</v>
       </c>
       <c r="F9">
-        <v>39.25014871772393</v>
+        <v>27.33064474693009</v>
       </c>
       <c r="G9">
-        <v>60.93574113074857</v>
+        <v>37.28599433533717</v>
       </c>
       <c r="H9">
-        <v>15.16342173640563</v>
+        <v>14.11027946486744</v>
       </c>
       <c r="I9">
-        <v>11.41328640105163</v>
+        <v>22.2176169844632</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.93518022907554</v>
+        <v>10.53281766701134</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.22947535735066</v>
+        <v>17.65261608952065</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.07027571431591</v>
+        <v>16.74942247961569</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.546727528925055</v>
+        <v>3.366942293377924</v>
       </c>
       <c r="E10">
-        <v>27.99737834497588</v>
+        <v>21.30230063082425</v>
       </c>
       <c r="F10">
-        <v>43.27968803225642</v>
+        <v>28.4813291225588</v>
       </c>
       <c r="G10">
-        <v>67.23301298097385</v>
+        <v>39.54439298214047</v>
       </c>
       <c r="H10">
-        <v>16.71850891034227</v>
+        <v>14.34684265973221</v>
       </c>
       <c r="I10">
-        <v>10.56820134846071</v>
+        <v>21.9496238512246</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>15.21470225095485</v>
+        <v>10.88909016148714</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.26192783189968</v>
+        <v>17.63333970058979</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.87738385419471</v>
+        <v>17.01564733780085</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.652784102703977</v>
+        <v>3.355440183023747</v>
       </c>
       <c r="E11">
-        <v>28.84453970052188</v>
+        <v>21.60876130775726</v>
       </c>
       <c r="F11">
-        <v>45.06195558974746</v>
+        <v>28.99998478710416</v>
       </c>
       <c r="G11">
-        <v>70.02014078864204</v>
+        <v>40.5437022988596</v>
       </c>
       <c r="H11">
-        <v>17.40759870470977</v>
+        <v>14.45801835678363</v>
       </c>
       <c r="I11">
-        <v>10.19252585804726</v>
+        <v>21.83301888191634</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>15.77220806816831</v>
+        <v>11.04928661365063</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.28168806916608</v>
+        <v>17.62680406208001</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.1771758243275</v>
+        <v>17.11566666640588</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.693005603016244</v>
+        <v>3.351224987900948</v>
       </c>
       <c r="E12">
-        <v>29.16199667757297</v>
+        <v>21.72345089604973</v>
       </c>
       <c r="F12">
-        <v>45.73023032006202</v>
+        <v>29.19547998339627</v>
       </c>
       <c r="G12">
-        <v>71.06550378840356</v>
+        <v>40.91772985704215</v>
       </c>
       <c r="H12">
-        <v>17.6661660271036</v>
+        <v>14.50059585482345</v>
       </c>
       <c r="I12">
-        <v>10.0516027723483</v>
+        <v>21.78962332244282</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>15.97993400943874</v>
+        <v>11.1096216902291</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.28990119178073</v>
+        <v>17.62464868661502</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.11286784164641</v>
+        <v>17.09416247279743</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.684339039745154</v>
+        <v>3.352126537028883</v>
       </c>
       <c r="E13">
-        <v>29.09377102672328</v>
+        <v>21.69881196878719</v>
       </c>
       <c r="F13">
-        <v>45.5865882895741</v>
+        <v>29.15342031488887</v>
       </c>
       <c r="G13">
-        <v>70.84079421445334</v>
+        <v>40.83737671868437</v>
       </c>
       <c r="H13">
-        <v>17.61057991881918</v>
+        <v>14.49140534371157</v>
       </c>
       <c r="I13">
-        <v>10.08189184432986</v>
+        <v>21.79893556671168</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>15.93534478467501</v>
+        <v>11.09664292703962</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.28809969285646</v>
+        <v>17.62509870045134</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.90216420177566</v>
+        <v>17.0238924237501</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.656091420388205</v>
+        <v>3.355090573840706</v>
       </c>
       <c r="E14">
-        <v>28.87072256095458</v>
+        <v>21.61822452324602</v>
       </c>
       <c r="F14">
-        <v>45.11706356205905</v>
+        <v>29.01608769853098</v>
       </c>
       <c r="G14">
-        <v>70.1063381492724</v>
+        <v>40.57456361178767</v>
       </c>
       <c r="H14">
-        <v>17.42891714380946</v>
+        <v>14.46151186097293</v>
       </c>
       <c r="I14">
-        <v>10.18090461420172</v>
+        <v>21.82943348345705</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>15.78936485237396</v>
+        <v>11.05425730977767</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.28234906758996</v>
+        <v>17.62662034365638</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.77234545419627</v>
+        <v>16.98074386383981</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.638799464514717</v>
+        <v>3.356924461432359</v>
       </c>
       <c r="E15">
-        <v>28.73367127424541</v>
+        <v>21.56868329933647</v>
       </c>
       <c r="F15">
-        <v>44.82862457801109</v>
+        <v>28.93184297367119</v>
       </c>
       <c r="G15">
-        <v>69.65518790183089</v>
+        <v>40.41300161969521</v>
       </c>
       <c r="H15">
-        <v>17.31734259304638</v>
+        <v>14.44326240600667</v>
       </c>
       <c r="I15">
-        <v>10.24173005162316</v>
+        <v>21.84821325653193</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>15.69951107147387</v>
+        <v>11.02825052432028</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.27892208408171</v>
+        <v>17.62759395727847</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.01670423659171</v>
+        <v>16.73191791056711</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.539800098127472</v>
+        <v>3.367713549342901</v>
       </c>
       <c r="E16">
-        <v>27.94153247289908</v>
+        <v>21.28208589953143</v>
       </c>
       <c r="F16">
-        <v>43.16224533232506</v>
+        <v>28.44731818670007</v>
       </c>
       <c r="G16">
-        <v>67.04939599801344</v>
+        <v>39.47848987810815</v>
       </c>
       <c r="H16">
-        <v>16.67312750990994</v>
+        <v>14.33964581269072</v>
       </c>
       <c r="I16">
-        <v>10.59293445025195</v>
+        <v>21.95735079460558</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>15.17778547962229</v>
+        <v>10.87857817402322</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.26073804374305</v>
+        <v>17.63381162260136</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.5425913050573</v>
+        <v>16.5779555858718</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.479081899857339</v>
+        <v>3.374580787222003</v>
       </c>
       <c r="E17">
-        <v>27.4493615760687</v>
+        <v>21.10391530394166</v>
       </c>
       <c r="F17">
-        <v>42.12740767610932</v>
+        <v>28.14868890819871</v>
       </c>
       <c r="G17">
-        <v>65.43168245445537</v>
+        <v>38.89774523709823</v>
       </c>
       <c r="H17">
-        <v>16.27339729120989</v>
+        <v>14.27696844143351</v>
       </c>
       <c r="I17">
-        <v>10.8106714208541</v>
+        <v>22.02566020211871</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>14.85152923814186</v>
+        <v>10.78623652684064</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.25087138418165</v>
+        <v>17.63819682584853</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.2659748771174</v>
+        <v>16.48894775299913</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.444138112817127</v>
+        <v>3.378621484291104</v>
       </c>
       <c r="E18">
-        <v>27.16392448474961</v>
+        <v>21.00059379324559</v>
       </c>
       <c r="F18">
-        <v>41.52736865612405</v>
+        <v>27.97648589824849</v>
       </c>
       <c r="G18">
-        <v>64.49384253528856</v>
+        <v>38.5610944709475</v>
       </c>
       <c r="H18">
-        <v>16.04173957920774</v>
+        <v>14.24125547840439</v>
       </c>
       <c r="I18">
-        <v>10.93672539255263</v>
+        <v>22.06544960170908</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>14.66155446018397</v>
+        <v>10.73295098045334</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.24566608507469</v>
+        <v>17.64092938649819</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.17164038993876</v>
+        <v>16.45873645492505</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.432300972078285</v>
+        <v>3.380005152977028</v>
       </c>
       <c r="E19">
-        <v>27.06687054858531</v>
+        <v>20.96546834953803</v>
       </c>
       <c r="F19">
-        <v>41.32335805216004</v>
+        <v>27.91811237815082</v>
       </c>
       <c r="G19">
-        <v>64.17500957715976</v>
+        <v>38.44667162654583</v>
       </c>
       <c r="H19">
-        <v>15.96299772533371</v>
+        <v>14.22922266739476</v>
       </c>
       <c r="I19">
-        <v>10.97954385644177</v>
+        <v>22.07900750927088</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14.59682966287884</v>
+        <v>10.71488151870298</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.24398396332364</v>
+        <v>17.64189075341006</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.59346614905524</v>
+        <v>16.59439270469071</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.485547001829958</v>
+        <v>3.373840345500845</v>
       </c>
       <c r="E20">
-        <v>27.50199618765917</v>
+        <v>21.12296956917821</v>
       </c>
       <c r="F20">
-        <v>42.23806308300557</v>
+        <v>28.18052560935083</v>
       </c>
       <c r="G20">
-        <v>65.60464673092329</v>
+        <v>38.95984056982266</v>
       </c>
       <c r="H20">
-        <v>16.31612797804091</v>
+        <v>14.2836058816399</v>
       </c>
       <c r="I20">
-        <v>10.78740793237889</v>
+        <v>22.01833685958912</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>14.88649900437117</v>
+        <v>10.79608479897159</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.25187300176878</v>
+        <v>17.63770825895406</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.96421040411272</v>
+        <v>17.0445547163681</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.664386069460979</v>
+        <v>3.354216141831964</v>
       </c>
       <c r="E21">
-        <v>28.93632592043385</v>
+        <v>21.64193244451963</v>
       </c>
       <c r="F21">
-        <v>45.25514835288174</v>
+        <v>29.05645193765803</v>
       </c>
       <c r="G21">
-        <v>70.32232912072256</v>
+        <v>40.6518799211464</v>
       </c>
       <c r="H21">
-        <v>17.48233806596111</v>
+        <v>14.47027961734077</v>
       </c>
       <c r="I21">
-        <v>10.1517850128542</v>
+        <v>21.82045489650561</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>15.83233345612739</v>
+        <v>11.06671633938293</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.28401825675693</v>
+        <v>17.62616474138252</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.82608950407438</v>
+        <v>17.33409300415317</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.781667605918466</v>
+        <v>3.342209692790002</v>
       </c>
       <c r="E22">
-        <v>29.85440738436285</v>
+        <v>21.97314732582679</v>
       </c>
       <c r="F22">
-        <v>47.18874033443301</v>
+        <v>29.62353493926058</v>
       </c>
       <c r="G22">
-        <v>73.34761243094221</v>
+        <v>41.73200856762542</v>
       </c>
       <c r="H22">
-        <v>18.23083316385631</v>
+        <v>14.59504932576633</v>
       </c>
       <c r="I22">
-        <v>9.744237408394829</v>
+        <v>21.69555741122236</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>16.43081574236806</v>
+        <v>11.24165408274882</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.30928857029565</v>
+        <v>17.62048205607414</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.3691501765366</v>
+        <v>17.18001765032039</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.719004538575996</v>
+        <v>3.348542312363586</v>
       </c>
       <c r="E23">
-        <v>29.36608540298684</v>
+        <v>21.79712083774185</v>
       </c>
       <c r="F23">
-        <v>46.15999014908832</v>
+        <v>29.32143305048174</v>
       </c>
       <c r="G23">
-        <v>71.73785576862645</v>
+        <v>41.1579825131189</v>
       </c>
       <c r="H23">
-        <v>17.83250045463822</v>
+        <v>14.52821578181418</v>
       </c>
       <c r="I23">
-        <v>9.96099382390832</v>
+        <v>21.76181314675111</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>16.11314255083873</v>
+        <v>11.14848204660362</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.29540785892167</v>
+        <v>17.62334521712881</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.57047823362095</v>
+        <v>16.58696301112007</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.482624247646235</v>
+        <v>3.37417481079071</v>
       </c>
       <c r="E24">
-        <v>27.47820782488515</v>
+        <v>21.11435789928612</v>
       </c>
       <c r="F24">
-        <v>42.18805169891191</v>
+        <v>28.16613383051856</v>
       </c>
       <c r="G24">
-        <v>65.5264739402466</v>
+        <v>38.93177587947242</v>
       </c>
       <c r="H24">
-        <v>16.29681520795115</v>
+        <v>14.28060409218398</v>
       </c>
       <c r="I24">
-        <v>10.79792263810732</v>
+        <v>22.02164613091004</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.87069667675913</v>
+        <v>10.79163300460626</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.25141871622678</v>
+        <v>17.63792848130918</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.48005809421674</v>
+        <v>15.93038730209424</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.226650892869485</v>
+        <v>3.405291174817218</v>
       </c>
       <c r="E25">
-        <v>25.35155139353537</v>
+        <v>20.34599500619175</v>
       </c>
       <c r="F25">
-        <v>37.71737086899172</v>
+        <v>26.90417764918251</v>
       </c>
       <c r="G25">
-        <v>58.54175993972481</v>
+        <v>36.43208710321555</v>
       </c>
       <c r="H25">
-        <v>14.57303923935887</v>
+        <v>14.02654278326983</v>
       </c>
       <c r="I25">
-        <v>11.73196807611081</v>
+        <v>22.32103287790751</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.44137143069704</v>
+        <v>10.40036099726935</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.22187154367714</v>
+        <v>17.66170532845616</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_111/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_111/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.43616840798465</v>
+        <v>17.80895944202439</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.431135433691324</v>
+        <v>2.034846122950991</v>
       </c>
       <c r="E2">
-        <v>19.75547178734143</v>
+        <v>23.70297951758635</v>
       </c>
       <c r="F2">
-        <v>25.97006422263257</v>
+        <v>34.24564013668549</v>
       </c>
       <c r="G2">
-        <v>34.5223991359973</v>
+        <v>53.12198968366381</v>
       </c>
       <c r="H2">
-        <v>13.85183328071549</v>
+        <v>13.40894286270686</v>
       </c>
       <c r="I2">
-        <v>22.55805929405394</v>
+        <v>12.44564391910023</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.1090585160351</v>
+        <v>12.30776613534987</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.68618808484334</v>
+        <v>13.21501701030058</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.09658988651523</v>
+        <v>16.6914967494846</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.450456682539366</v>
+        <v>1.933611851078593</v>
       </c>
       <c r="E3">
-        <v>19.34131854567429</v>
+        <v>22.53339349152255</v>
       </c>
       <c r="F3">
-        <v>25.33872057111664</v>
+        <v>31.77349550771839</v>
       </c>
       <c r="G3">
-        <v>33.1945802744435</v>
+        <v>49.26463515755371</v>
       </c>
       <c r="H3">
-        <v>13.74167325498498</v>
+        <v>12.67265149140798</v>
       </c>
       <c r="I3">
-        <v>22.72911852487826</v>
+        <v>12.94561665642006</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.91086866741111</v>
+        <v>11.48699819178788</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.70715894152752</v>
+        <v>13.21939954667147</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.88655162169721</v>
+        <v>15.97173552595178</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.463203458708285</v>
+        <v>1.947490431804187</v>
       </c>
       <c r="E4">
-        <v>19.08070159868165</v>
+        <v>21.78973229197862</v>
       </c>
       <c r="F4">
-        <v>24.95362956415997</v>
+        <v>30.28758065805283</v>
       </c>
       <c r="G4">
-        <v>32.3664761644595</v>
+        <v>46.80275312074644</v>
       </c>
       <c r="H4">
-        <v>13.67826265619505</v>
+        <v>12.21561418972984</v>
       </c>
       <c r="I4">
-        <v>22.83931618153206</v>
+        <v>13.26078390311194</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.789233909878485</v>
+        <v>10.95663215014854</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.72220381421018</v>
+        <v>13.22645209532705</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.80069245059844</v>
+        <v>15.67007444488955</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.468618912312218</v>
+        <v>1.954064036201271</v>
       </c>
       <c r="E5">
-        <v>18.97299722032744</v>
+        <v>21.48036707998669</v>
       </c>
       <c r="F5">
-        <v>24.79761184677212</v>
+        <v>29.68302521044042</v>
       </c>
       <c r="G5">
-        <v>32.02642329200862</v>
+        <v>45.77579654398296</v>
       </c>
       <c r="H5">
-        <v>13.65350835224798</v>
+        <v>12.02827923333509</v>
       </c>
       <c r="I5">
-        <v>22.88552517306984</v>
+        <v>13.39130003476695</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.739748252531157</v>
+        <v>10.733799180635</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.728881419052</v>
+        <v>13.23040929499112</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.78642304597078</v>
+        <v>15.61948328572314</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.469531462552303</v>
+        <v>1.955208168602147</v>
       </c>
       <c r="E6">
-        <v>18.95502504998639</v>
+        <v>21.42861972787988</v>
       </c>
       <c r="F6">
-        <v>24.77176808777366</v>
+        <v>29.58197746137915</v>
       </c>
       <c r="G6">
-        <v>31.96982062141986</v>
+        <v>45.60383497037522</v>
       </c>
       <c r="H6">
-        <v>13.64946413351279</v>
+        <v>11.9971121756955</v>
       </c>
       <c r="I6">
-        <v>22.89327691127783</v>
+        <v>13.41309877103831</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.731538121196715</v>
+        <v>10.69639135702419</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.73002328848119</v>
+        <v>13.23113141096756</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.88539461496209</v>
+        <v>15.96770086857311</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.46327559990772</v>
+        <v>1.947575499059699</v>
       </c>
       <c r="E7">
-        <v>19.07925501474057</v>
+        <v>21.7855854877857</v>
       </c>
       <c r="F7">
-        <v>24.95152141360915</v>
+        <v>30.27947195364312</v>
       </c>
       <c r="G7">
-        <v>32.36189972093545</v>
+        <v>46.78899945119294</v>
       </c>
       <c r="H7">
-        <v>13.67792438541635</v>
+        <v>12.21309189015955</v>
       </c>
       <c r="I7">
-        <v>22.83993409375164</v>
+        <v>13.26253561859251</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.788566108701307</v>
+        <v>10.95365416914304</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.72229165541897</v>
+        <v>13.22650109551615</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.31947073181243</v>
+        <v>17.43068967336368</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.437613362199095</v>
+        <v>1.989319260419742</v>
       </c>
       <c r="E8">
-        <v>19.6140369165083</v>
+        <v>23.30504982318907</v>
       </c>
       <c r="F8">
-        <v>25.75200480352845</v>
+        <v>33.40566889025462</v>
       </c>
       <c r="G8">
-        <v>34.06758754447554</v>
+        <v>51.81119182301563</v>
       </c>
       <c r="H8">
-        <v>13.81298697155228</v>
+        <v>13.15617590262072</v>
       </c>
       <c r="I8">
-        <v>22.61597022135967</v>
+        <v>12.61635017452222</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.0407515792684</v>
+        <v>12.03020562618762</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.69296955543154</v>
+        <v>13.21561473646324</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.15349406636456</v>
+        <v>20.20471206430762</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.394350692933696</v>
+        <v>2.313246750368286</v>
       </c>
       <c r="E9">
-        <v>20.60885693586374</v>
+        <v>26.08054503873946</v>
       </c>
       <c r="F9">
-        <v>27.33064474693009</v>
+        <v>39.25014871772392</v>
       </c>
       <c r="G9">
-        <v>37.28599433533717</v>
+        <v>60.93574113074853</v>
       </c>
       <c r="H9">
-        <v>14.11027946486744</v>
+        <v>15.16342173640562</v>
       </c>
       <c r="I9">
-        <v>22.2176169844632</v>
+        <v>11.41328640105147</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.53281766701134</v>
+        <v>13.93518022907553</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.65261608952065</v>
+        <v>13.22947535735059</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.74942247961569</v>
+        <v>22.07027571431593</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.366942293377924</v>
+        <v>2.546727528924934</v>
       </c>
       <c r="E10">
-        <v>21.30230063082425</v>
+        <v>27.99737834497588</v>
       </c>
       <c r="F10">
-        <v>28.4813291225588</v>
+        <v>43.27968803225638</v>
       </c>
       <c r="G10">
-        <v>39.54439298214047</v>
+        <v>67.23301298097381</v>
       </c>
       <c r="H10">
-        <v>14.34684265973221</v>
+        <v>16.71850891034222</v>
       </c>
       <c r="I10">
-        <v>21.9496238512246</v>
+        <v>10.56820134846085</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.88909016148714</v>
+        <v>15.21470225095485</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.63333970058979</v>
+        <v>13.26192783189975</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.01564733780085</v>
+        <v>22.8773838541947</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.355440183023747</v>
+        <v>2.652784102703916</v>
       </c>
       <c r="E11">
-        <v>21.60876130775726</v>
+        <v>28.84453970052196</v>
       </c>
       <c r="F11">
-        <v>28.99998478710416</v>
+        <v>45.0619555897475</v>
       </c>
       <c r="G11">
-        <v>40.5437022988596</v>
+        <v>70.02014078864211</v>
       </c>
       <c r="H11">
-        <v>14.45801835678363</v>
+        <v>17.40759870470978</v>
       </c>
       <c r="I11">
-        <v>21.83301888191634</v>
+        <v>10.19252585804736</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.04928661365063</v>
+        <v>15.77220806816833</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.62680406208001</v>
+        <v>13.28168806916609</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.11566666640588</v>
+        <v>23.17717582432754</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.351224987900948</v>
+        <v>2.693005603016253</v>
       </c>
       <c r="E12">
-        <v>21.72345089604973</v>
+        <v>29.16199667757295</v>
       </c>
       <c r="F12">
-        <v>29.19547998339627</v>
+        <v>45.73023032006203</v>
       </c>
       <c r="G12">
-        <v>40.91772985704215</v>
+        <v>71.06550378840353</v>
       </c>
       <c r="H12">
-        <v>14.50059585482345</v>
+        <v>17.66616602710363</v>
       </c>
       <c r="I12">
-        <v>21.78962332244282</v>
+        <v>10.05160277234837</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.1096216902291</v>
+        <v>15.97993400943879</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.62464868661502</v>
+        <v>13.28990119178076</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.09416247279743</v>
+        <v>23.11286784164641</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.352126537028883</v>
+        <v>2.684339039745047</v>
       </c>
       <c r="E13">
-        <v>21.69881196878719</v>
+        <v>29.09377102672347</v>
       </c>
       <c r="F13">
-        <v>29.15342031488887</v>
+        <v>45.58658828957419</v>
       </c>
       <c r="G13">
-        <v>40.83737671868437</v>
+        <v>70.84079421445348</v>
       </c>
       <c r="H13">
-        <v>14.49140534371157</v>
+        <v>17.61057991881922</v>
       </c>
       <c r="I13">
-        <v>21.79893556671168</v>
+        <v>10.08189184432982</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.09664292703962</v>
+        <v>15.93534478467492</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.62509870045134</v>
+        <v>13.28809969285644</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.0238924237501</v>
+        <v>22.90216420177559</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.355090573840706</v>
+        <v>2.65609142038827</v>
       </c>
       <c r="E14">
-        <v>21.61822452324602</v>
+        <v>28.87072256095461</v>
       </c>
       <c r="F14">
-        <v>29.01608769853098</v>
+        <v>45.11706356205899</v>
       </c>
       <c r="G14">
-        <v>40.57456361178767</v>
+        <v>70.10633814927236</v>
       </c>
       <c r="H14">
-        <v>14.46151186097293</v>
+        <v>17.42891714380941</v>
       </c>
       <c r="I14">
-        <v>21.82943348345705</v>
+        <v>10.18090461420191</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.05425730977767</v>
+        <v>15.78936485237396</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.62662034365638</v>
+        <v>13.28234906758998</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.98074386383981</v>
+        <v>22.77234545419627</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.356924461432359</v>
+        <v>2.638799464514736</v>
       </c>
       <c r="E15">
-        <v>21.56868329933647</v>
+        <v>28.73367127424539</v>
       </c>
       <c r="F15">
-        <v>28.93184297367119</v>
+        <v>44.82862457801109</v>
       </c>
       <c r="G15">
-        <v>40.41300161969521</v>
+        <v>69.65518790183094</v>
       </c>
       <c r="H15">
-        <v>14.44326240600667</v>
+        <v>17.31734259304638</v>
       </c>
       <c r="I15">
-        <v>21.84821325653193</v>
+        <v>10.24173005162318</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.02825052432028</v>
+        <v>15.69951107147386</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.62759395727847</v>
+        <v>13.27892208408166</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.73191791056711</v>
+        <v>22.01670423659169</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.367713549342901</v>
+        <v>2.539800098127374</v>
       </c>
       <c r="E16">
-        <v>21.28208589953143</v>
+        <v>27.94153247289923</v>
       </c>
       <c r="F16">
-        <v>28.44731818670007</v>
+        <v>43.16224533232512</v>
       </c>
       <c r="G16">
-        <v>39.47848987810815</v>
+        <v>67.04939599801347</v>
       </c>
       <c r="H16">
-        <v>14.33964581269072</v>
+        <v>16.67312750990999</v>
       </c>
       <c r="I16">
-        <v>21.95735079460558</v>
+        <v>10.59293445025205</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.87857817402322</v>
+        <v>15.17778547962228</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.63381162260136</v>
+        <v>13.26073804374307</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.5779555858718</v>
+        <v>21.54259130505733</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.374580787222003</v>
+        <v>2.479081899857344</v>
       </c>
       <c r="E17">
-        <v>21.10391530394166</v>
+        <v>27.44936157606864</v>
       </c>
       <c r="F17">
-        <v>28.14868890819871</v>
+        <v>42.1274076761093</v>
       </c>
       <c r="G17">
-        <v>38.89774523709823</v>
+        <v>65.43168245445534</v>
       </c>
       <c r="H17">
-        <v>14.27696844143351</v>
+        <v>16.27339729120989</v>
       </c>
       <c r="I17">
-        <v>22.02566020211871</v>
+        <v>10.81067142085401</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.78623652684064</v>
+        <v>14.85152923814185</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.63819682584853</v>
+        <v>13.2508713841816</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.48894775299913</v>
+        <v>21.26597487711747</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.378621484291104</v>
+        <v>2.444138112817136</v>
       </c>
       <c r="E18">
-        <v>21.00059379324559</v>
+        <v>27.16392448474967</v>
       </c>
       <c r="F18">
-        <v>27.97648589824849</v>
+        <v>41.52736865612415</v>
       </c>
       <c r="G18">
-        <v>38.5610944709475</v>
+        <v>64.49384253528874</v>
       </c>
       <c r="H18">
-        <v>14.24125547840439</v>
+        <v>16.04173957920776</v>
       </c>
       <c r="I18">
-        <v>22.06544960170908</v>
+        <v>10.93672539255261</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.73295098045334</v>
+        <v>14.66155446018395</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.64092938649819</v>
+        <v>13.24566608507468</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.45873645492505</v>
+        <v>21.17164038993873</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.380005152977028</v>
+        <v>2.43230097207829</v>
       </c>
       <c r="E19">
-        <v>20.96546834953803</v>
+        <v>27.06687054858527</v>
       </c>
       <c r="F19">
-        <v>27.91811237815082</v>
+        <v>41.32335805215997</v>
       </c>
       <c r="G19">
-        <v>38.44667162654583</v>
+        <v>64.17500957715966</v>
       </c>
       <c r="H19">
-        <v>14.22922266739476</v>
+        <v>15.96299772533369</v>
       </c>
       <c r="I19">
-        <v>22.07900750927088</v>
+        <v>10.97954385644179</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.71488151870298</v>
+        <v>14.59682966287882</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.64189075341006</v>
+        <v>13.24398396332364</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.59439270469071</v>
+        <v>21.5934661490553</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.373840345500845</v>
+        <v>2.485547001829912</v>
       </c>
       <c r="E20">
-        <v>21.12296956917821</v>
+        <v>27.50199618765918</v>
       </c>
       <c r="F20">
-        <v>28.18052560935083</v>
+        <v>42.23806308300568</v>
       </c>
       <c r="G20">
-        <v>38.95984056982266</v>
+        <v>65.60464673092343</v>
       </c>
       <c r="H20">
-        <v>14.2836058816399</v>
+        <v>16.31612797804096</v>
       </c>
       <c r="I20">
-        <v>22.01833685958912</v>
+        <v>10.7874079323788</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.79608479897159</v>
+        <v>14.88649900437121</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.63770825895406</v>
+        <v>13.25187300176877</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.0445547163681</v>
+        <v>22.96421040411274</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.354216141831964</v>
+        <v>2.664386069460815</v>
       </c>
       <c r="E21">
-        <v>21.64193244451963</v>
+        <v>28.93632592043394</v>
       </c>
       <c r="F21">
-        <v>29.05645193765803</v>
+        <v>45.25514835288189</v>
       </c>
       <c r="G21">
-        <v>40.6518799211464</v>
+        <v>70.32232912072277</v>
       </c>
       <c r="H21">
-        <v>14.47027961734077</v>
+        <v>17.48233806596115</v>
       </c>
       <c r="I21">
-        <v>21.82045489650561</v>
+        <v>10.15178501285418</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.06671633938293</v>
+        <v>15.8323334561274</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.62616474138252</v>
+        <v>13.28401825675691</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.33409300415317</v>
+        <v>23.82608950407442</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.342209692790002</v>
+        <v>2.781667605918466</v>
       </c>
       <c r="E22">
-        <v>21.97314732582679</v>
+        <v>29.8544073843628</v>
       </c>
       <c r="F22">
-        <v>29.62353493926058</v>
+        <v>47.188740334433</v>
       </c>
       <c r="G22">
-        <v>41.73200856762542</v>
+        <v>73.34761243094225</v>
       </c>
       <c r="H22">
-        <v>14.59504932576633</v>
+        <v>18.23083316385631</v>
       </c>
       <c r="I22">
-        <v>21.69555741122236</v>
+        <v>9.744237408394737</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.24165408274882</v>
+        <v>16.43081574236803</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.62048205607414</v>
+        <v>13.30928857029563</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.18001765032039</v>
+        <v>23.3691501765366</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.348542312363586</v>
+        <v>2.719004538576005</v>
       </c>
       <c r="E23">
-        <v>21.79712083774185</v>
+        <v>29.36608540298684</v>
       </c>
       <c r="F23">
-        <v>29.32143305048174</v>
+        <v>46.1599901490884</v>
       </c>
       <c r="G23">
-        <v>41.1579825131189</v>
+        <v>71.73785576862659</v>
       </c>
       <c r="H23">
-        <v>14.52821578181418</v>
+        <v>17.83250045463823</v>
       </c>
       <c r="I23">
-        <v>21.76181314675111</v>
+        <v>9.96099382390822</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.14848204660362</v>
+        <v>16.11314255083876</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.62334521712881</v>
+        <v>13.29540785892163</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.58696301112007</v>
+        <v>21.57047823362097</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.37417481079071</v>
+        <v>2.482624247646226</v>
       </c>
       <c r="E24">
-        <v>21.11435789928612</v>
+        <v>27.47820782488508</v>
       </c>
       <c r="F24">
-        <v>28.16613383051856</v>
+        <v>42.18805169891194</v>
       </c>
       <c r="G24">
-        <v>38.93177587947242</v>
+        <v>65.5264739402467</v>
       </c>
       <c r="H24">
-        <v>14.28060409218398</v>
+        <v>16.29681520795114</v>
       </c>
       <c r="I24">
-        <v>22.02164613091004</v>
+        <v>10.79792263810736</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.79163300460626</v>
+        <v>14.87069667675917</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.63792848130918</v>
+        <v>13.25141871622677</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.93038730209424</v>
+        <v>19.48005809421676</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.405291174817218</v>
+        <v>2.226650892869605</v>
       </c>
       <c r="E25">
-        <v>20.34599500619175</v>
+        <v>25.35155139353532</v>
       </c>
       <c r="F25">
-        <v>26.90417764918251</v>
+        <v>37.71737086899174</v>
       </c>
       <c r="G25">
-        <v>36.43208710321555</v>
+        <v>58.54175993972483</v>
       </c>
       <c r="H25">
-        <v>14.02654278326983</v>
+        <v>14.57303923935888</v>
       </c>
       <c r="I25">
-        <v>22.32103287790751</v>
+        <v>11.73196807611089</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.40036099726935</v>
+        <v>13.44137143069704</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.66170532845616</v>
+        <v>13.22187154367712</v>
       </c>
       <c r="O25">
         <v>0</v>
